--- a/data/national_results/national_landuse_restrictiveness_index_metadata.xlsx
+++ b/data/national_results/national_landuse_restrictiveness_index_metadata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11" documentId="8_{FFD38C22-64C0-4F09-9B65-6279E673F9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A751D866-FE19-4FAF-B347-DC5A07F00446}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
+    <workbookView xWindow="-14400" yWindow="-1125" windowWidth="14400" windowHeight="15600" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
